--- a/products.xlsx
+++ b/products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -534,10 +534,2404 @@
         <v>78.7</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13">
+        <v>64</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Амінокапронова кислота розчин для інфузій 50 мг/мл пляшка 100 мл</v>
+      </c>
+      <c r="C13">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>66</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Аміаку розчин (Нашатирний спирт) для зовнішнього застосування 10 % флакон 40 мл</v>
+      </c>
+      <c r="C14">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>85</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Анальгін-Дарниця таблетки по 500 мг 10 шт</v>
+      </c>
+      <c r="C15">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>85</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Анальгін-Дарниця таблетки по 500 мг 10 шт</v>
+      </c>
+      <c r="C16">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Андипал-В таблетки стрип 10 шт</v>
+      </c>
+      <c r="C17">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>120</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Апілакгріндекс таблетки сублінгвальні по 10 мг блістер 25 шт</v>
+      </c>
+      <c r="C18">
+        <v>365.3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>136</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Аскорбінова кислота драже по 50 мг контейнер 160 шт</v>
+      </c>
+      <c r="C19">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Аскорутин таблетки 5 блістерів по 10 шт</v>
+      </c>
+      <c r="C20">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>143</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Аскофен-Дарниця таблетки 6 шт</v>
+      </c>
+      <c r="C21">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>148</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Ацетилсаліцилова кислота-Дарниця (Аспірин) таблетки по 500 мг 10 шт</v>
+      </c>
+      <c r="C22">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>175</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Ауробін мазь туба 20 г</v>
+      </c>
+      <c r="C23">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>176</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Афлубін краплі оральні флакон-крапельниця 20 мл</v>
+      </c>
+      <c r="C24">
+        <v>246.8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>177</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Афлубін краплі оральні флакон-крапельниця 50 мл</v>
+      </c>
+      <c r="C25">
+        <v>399.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>183</v>
+      </c>
+      <c r="B26" t="str">
+        <v>АЦЦ Лонг таблетки шипучі по 600 мг туба 10 шт</v>
+      </c>
+      <c r="C26">
+        <v>307.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>186</v>
+      </c>
+      <c r="B27" t="str">
+        <v>АЦЦ порошок для орального розчину по 100 мг в пакетах 20 шт</v>
+      </c>
+      <c r="C27">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>188</v>
+      </c>
+      <c r="B28" t="str">
+        <v>АЦЦ порошок для орального розчину по 200 мг в пакетах 20 шт</v>
+      </c>
+      <c r="C28">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>216</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Бальзам евкаліптовий від застуди Др. Тайсса мазь банка 50 г</v>
+      </c>
+      <c r="C29">
+        <v>110.6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>224</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Банеоцин мазь туба 20г</v>
+      </c>
+      <c r="C30">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>228</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Барбовал краплі оральні флакон 25 мл</v>
+      </c>
+      <c r="C31">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>256</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Бесалол таблетки блістер 6 шт</v>
+      </c>
+      <c r="C32">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>257</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Бетадин мазь 10 % туба 20 г</v>
+      </c>
+      <c r="C33">
+        <v>146.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>259</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Бетіол супозиторії ректальні (свічки) блістер 10 шт</v>
+      </c>
+      <c r="C34">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>299</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Бісептол суспензія оральна 200 мг/40 мг/5 мл флакон 80 мл з мірними поділками</v>
+      </c>
+      <c r="C35">
+        <v>178.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>321</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Борна кислота порошок кристалічний 10 г</v>
+      </c>
+      <c r="C36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>329</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Бороментол мазь туба 25 г</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>339</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Бромгексин-Здоров'я таблетки по 8 мг блістер 20 шт</v>
+      </c>
+      <c r="C38">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>340</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Бромгексин таблетки вкриті оболонкою 8 мг блістер 25 шт</v>
+      </c>
+      <c r="C39">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>350</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Бромокриптин-Ріхтер таблетки по 2,5 мг флакон 30 шт</v>
+      </c>
+      <c r="C40">
+        <v>554.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>362</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Бронхолітин сироп флакон 125 г</v>
+      </c>
+      <c r="C41">
+        <v>201.7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>363</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Бронхо-мунал П капсули тверді по 3.5 мг блістер 10 шт</v>
+      </c>
+      <c r="C42">
+        <v>357.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>364</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Бронхо-мунал капсули тверді по 7 мг блістер 10 шт</v>
+      </c>
+      <c r="C43">
+        <v>423.6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>395</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Валеріани настойка флакон 25 мл</v>
+      </c>
+      <c r="C44">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>401</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Валідол-Дарниця таблетки по 60 мг блістер 10 шт</v>
+      </c>
+      <c r="C45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>404</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Валокордин краплі оральні флакон-крапельниця 20 мл</v>
+      </c>
+      <c r="C46">
+        <v>79.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>405</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Валокордин краплі оральні флакон-крапельниця 50 мл</v>
+      </c>
+      <c r="C47">
+        <v>142.6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>430</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Верапамілу гідрохлорид таблетки вкриті оболонкою 80 мг 5 блістерів по 10 шт</v>
+      </c>
+      <c r="C48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>433</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Вермокс таблетки по 100 мг блістер 6 шт</v>
+      </c>
+      <c r="C49">
+        <v>79.6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>434</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Верошпірон таблетки по 25 мг блістер 20 шт</v>
+      </c>
+      <c r="C50">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>437</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Віагра таблетки вкриті плівковою оболонкою по 100 мг блістер 1 шт</v>
+      </c>
+      <c r="C51">
+        <v>406.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>438</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Віагра таблетки вкриті плівковою оболонкою по 50 мг блістер 1 шт</v>
+      </c>
+      <c r="C52">
+        <v>244.5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>454</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Віпросал В мазь туба 50 г</v>
+      </c>
+      <c r="C53">
+        <v>358.8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>465</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Вітамін А капсули м'які 100 000 МО 5 блістерів по 10 шт</v>
+      </c>
+      <c r="C54">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>466</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Вітамін А (ретинолу ацетат) розчин олійний нашкірний та оральний 34,4 мг/мл флакон 10 мл</v>
+      </c>
+      <c r="C55">
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>511</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Перцю водяного екстракт рідкий длоя перорального застосування спиртовий флакон 25мл</v>
+      </c>
+      <c r="C56">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>514</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Вольтарен емульгель для зовнішнього застосування 1 % туба 50 г</v>
+      </c>
+      <c r="C57">
+        <v>250.1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>518</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Галазолін краплі назальні розчин 0,05% флакон-крапельниця 10 мл з контролем першого відкриття</v>
+      </c>
+      <c r="C58">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>519</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Галазолін краплі назальні розчин 0,1 % флакон-крапельниця 10 мл з контролем першого відкриття</v>
+      </c>
+      <c r="C59">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>521</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Галстена краплі оральні у флаконах-крапельницях по 20 мл</v>
+      </c>
+      <c r="C60">
+        <v>396.7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>532</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Геделикс сироп від кашлю флакон 100 мл</v>
+      </c>
+      <c r="C61">
+        <v>167.9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>539</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Гексаспрей спрей оромукозний 750 мг/30 г у флаконі 30 г</v>
+      </c>
+      <c r="C62">
+        <v>240.6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>540</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Гельмінтокс таблетки вкриті плівковою оболонкою по 125 мг блістер 6 шт</v>
+      </c>
+      <c r="C63">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>541</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Гельмінтокс таблетки вкриті плівковою оболонкою по 250 мг блістер 3 шт</v>
+      </c>
+      <c r="C64">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>542</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Гельмінтокс суспензія оральна 125 мг/2,5 мл флакон 15 мл</v>
+      </c>
+      <c r="C65">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>559</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Гентос краплі оральні флакон-крапельниця 20 мл</v>
+      </c>
+      <c r="C66">
+        <v>471.9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>565</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Гепатромбін гель 30000 МО/100 г туба 40 г</v>
+      </c>
+      <c r="C67">
+        <v>139.3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>579</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Герпевір таблетки по 200 мг 2 блістера по 10 шт</v>
+      </c>
+      <c r="C68">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>582</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Герпевир мазь 2.5 % туба 15 г</v>
+      </c>
+      <c r="C69">
+        <v>139.7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>584</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Гідрокортизону ацетат суспензія для ін'єкцій 2,5 % в ампулах по 2 мл 10 шт</v>
+      </c>
+      <c r="C70">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>589</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Гідрохлортіазид таблетки по 25 мг блістер 20 шт</v>
+      </c>
+      <c r="C71">
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>599</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Гіпотіазид таблетки по 100 мг блістер 20 шт</v>
+      </c>
+      <c r="C72">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>600</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Гіпотіазид таблетки по 25 мг блістер 20 шт</v>
+      </c>
+      <c r="C73">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>609</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Гліцерин розчин нашкірний 85% флакон 25 г</v>
+      </c>
+      <c r="C74">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>612</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Глутамінова кислота таблетки вкриті плівковою оболонкою по 250 мг блістер 10 шт</v>
+      </c>
+      <c r="C75">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>621</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Глюкоза розчин для інфузій 5 % (50 мг/мл) пляшка 400 мл</v>
+      </c>
+      <c r="C76">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>627</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Глюренорм таблетки по 30 мг 6 блістерів по 10 шт</v>
+      </c>
+      <c r="C77">
+        <v>341.5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>635</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Грілка гумова тип Б-1 комбінована (кухоль Есмарха) в індивідуальній упаковці об'єм 1л Київгума</v>
+      </c>
+      <c r="C78">
+        <v>200.4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>637</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Грілка гумова тип Б-3 комбінована (кухоль Есмарха) в індивідуальній упаковці об'єм 3л Київгума</v>
+      </c>
+      <c r="C79">
+        <v>264.6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>639</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Грілка гумова тип А-2 звичайна в індивідуальній упаковці об'єм 2 л Київгума</v>
+      </c>
+      <c r="C80">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>640</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Грілка гумова тип А-3 звичайна в індивідуальній упаковці об'єм 3 л Київгума</v>
+      </c>
+      <c r="C81">
+        <v>183.4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>648</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Гутталакс пікосульфат краплі 7,5 мг/мл флакон 15 мл</v>
+      </c>
+      <c r="C82">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>649</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Гутталакс пікосульфат краплі 7,5 мг/мл флакон 30 мл</v>
+      </c>
+      <c r="C83">
+        <v>165.4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>651</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Далацин Ц капсули по 150 мг 2 блістера по 8 шт</v>
+      </c>
+      <c r="C84">
+        <v>401.6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>653</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Де-Нол таблетки вкриті плівковою оболонкою по 120 мг 14 блістеров по 8 шт</v>
+      </c>
+      <c r="C85">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>657</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Декамевіт таблетки вкриті плівковою оболонкою 2 блістера по 10 шт</v>
+      </c>
+      <c r="C86">
+        <v>99.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>658</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Декаріс таблетки по 150 мг блістер 1 шт</v>
+      </c>
+      <c r="C87">
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>667</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Дентол-бебі гель для ясен 75 мг/г туба 15 г</v>
+      </c>
+      <c r="C88">
+        <v>194.9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>679</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Диазолин драже по 0,05 г 2 блістера по 10 шт</v>
+      </c>
+      <c r="C89">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>682</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Діазолін драже по 0,1 г 2 блістера по 10 шт</v>
+      </c>
+      <c r="C90">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>684</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Діазолін для дітей гранули для оральної суспензії у флаконі 9 г</v>
+      </c>
+      <c r="C91">
+        <v>39.7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>686</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Діане-35 таблетки вкриті оболонкою блістер 21 шт</v>
+      </c>
+      <c r="C92">
+        <v>335.6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>692</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Дигоксин таблетки по 0,1 мг банка 50 шт</v>
+      </c>
+      <c r="C93">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>702</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Диклофенак-Здоров'я гель 1% туба 50 г</v>
+      </c>
+      <c r="C94">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>712</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Димексид розчин нашкірний флакон 50 мл</v>
+      </c>
+      <c r="C95">
+        <v>153.7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>719</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Дипросалік лосьйон флакон 30 мл</v>
+      </c>
+      <c r="C96">
+        <v>404.9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>720</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Дипросалік мазь туба 30 г</v>
+      </c>
+      <c r="C97">
+        <v>404.5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>722</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Дифенін таблетки по 117 мг 6 блістерів по 10 шт</v>
+      </c>
+      <c r="C98">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>723</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Дифлюкан капсули по 150 мг блістер 1 шт</v>
+      </c>
+      <c r="C99">
+        <v>379.3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>724</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Дицинон таблетки по 250 мг 10 блістерів по 10 шт</v>
+      </c>
+      <c r="C100">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>731</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Доктор Мом мазь баночка 20 г</v>
+      </c>
+      <c r="C101">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>736</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Донорміл таблетки вкриті оболонкою 15 мг туба 30 шт</v>
+      </c>
+      <c r="C102">
+        <v>295.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>745</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Дуовіт таблетки вкриті оболонкою комбі-упаковка 40 шт</v>
+      </c>
+      <c r="C103">
+        <v>240.4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>749</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Жовч медична консервована розчин нашкірний пляшка 250 мл</v>
+      </c>
+      <c r="C104">
+        <v>158.2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>762</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Зеленіна краплі оральні флакон 25 мл</v>
+      </c>
+      <c r="C105">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>765</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Брильянтовий зелений (зеленка) розчин для зовнішнього застосування спиртовий 1 % флакон 20 мл</v>
+      </c>
+      <c r="C106">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>768</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Зіннат таблетки вкриті оболонкою по 125 мг блістер 10 шт</v>
+      </c>
+      <c r="C107">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>769</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Зіннат таблетки вкриті оболонкою по 250 мг блістер 10 шт</v>
+      </c>
+      <c r="C108">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>798</v>
+      </c>
+      <c r="B109" t="str">
+        <v>Зубна щітка дитяча LACALUT (Лакалут) малюкам до 4-х років</v>
+      </c>
+      <c r="C109">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>819</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Натрію хлорид (фізіологічний розчин) розчин для інфузій 0,9 % (9 мг/мл) пляшка 200 мл</v>
+      </c>
+      <c r="C110">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>821</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Натрію хлорид (фізіологічний розчин) розчин для інфузій 0,9 % (9 мг/мл) пляшка 400 мл</v>
+      </c>
+      <c r="C111">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>832</v>
+      </c>
+      <c r="B112" t="str">
+        <v>Імодіум капсули по 2 мг блістер 20 шт</v>
+      </c>
+      <c r="C112">
+        <v>156.1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>833</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Імодіум капсули по 2 мг блістер 6 шт</v>
+      </c>
+      <c r="C113">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>844</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Індовазин-Тева гель туба 45 г</v>
+      </c>
+      <c r="C114">
+        <v>183.1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>847</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Індометацин Софарма таблетки вкриті оболонкою кишковорозчинні по 25 мг блістер 30 шт</v>
+      </c>
+      <c r="C115">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>863</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Інфлюцид таблетки 3 блістера по 20 шт</v>
+      </c>
+      <c r="C116">
+        <v>245.4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>866</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Ірикар мазь туба 50 г</v>
+      </c>
+      <c r="C117">
+        <v>281.6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>878</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Йод розчин спиртовий для зовнішнього застосування 5% флакон 20мл</v>
+      </c>
+      <c r="C118">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>880</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Йоддицерин розчин нашкірний флакон 25 мл</v>
+      </c>
+      <c r="C119">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>890</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Кавінтон таблетки по 5 мг 2 блістера по 25 шт</v>
+      </c>
+      <c r="C120">
+        <v>383.2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>899</v>
+      </c>
+      <c r="B121" t="str">
+        <v>Календули настойка флакон 40 мл</v>
+      </c>
+      <c r="C121">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>902</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Калію оротат таблетки по 500 мг блістер 10 шт</v>
+      </c>
+      <c r="C122">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>912</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Кальцію глюконат стабілізований розчин для ін'єкцій 100 мг/мл в ампулах по 10 мл 10 шт</v>
+      </c>
+      <c r="C123">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>922</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Камістад Н гель туба 10 г</v>
+      </c>
+      <c r="C124">
+        <v>161.6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>946</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Каптопрес-Дарниця таблетки 2 блістера по 10 шт</v>
+      </c>
+      <c r="C125">
+        <v>108.6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>947</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Каптоприл таблетки по 25 мг 2 блістера по 10 шт</v>
+      </c>
+      <c r="C126">
+        <v>132.8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="B127">
+        <v>949</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Каптоприл таблетки по 25 мг 2 блістера по 10 шт</v>
+      </c>
+      <c r="D127" t="str">
+        <v>КИЇВМЕДПРЕПАРАТ ПАТ</v>
+      </c>
+      <c r="E127">
+        <v>66.6</v>
+      </c>
+      <c r="F127" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128">
+        <v>950</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Карбамазепін-Дарниця таблетки по 200 мг блістер 20 шт</v>
+      </c>
+      <c r="D128" t="str">
+        <v>ДАРНИЦЯ ПРАТ ФАРМ. ФІРМА</v>
+      </c>
+      <c r="E128">
+        <v>42.6</v>
+      </c>
+      <c r="F128" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="B129">
+        <v>953</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Кардіофіт настойка складна банка 100 мл</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E129">
+        <v>143.2</v>
+      </c>
+      <c r="F129" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="B130">
+        <v>956</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Карсил таблетки вкриті оболонкою по 22,5 мг 8 блістерів по 10 шт</v>
+      </c>
+      <c r="D130" t="str">
+        <v>АТ СОФАРМА</v>
+      </c>
+      <c r="E130">
+        <v>292.8</v>
+      </c>
+      <c r="F130" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131">
+        <v>964</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Офтан Катахром краплі очні флакон 10 мл</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Фінляндія</v>
+      </c>
+      <c r="E131">
+        <v>169.8</v>
+      </c>
+      <c r="F131" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="B132">
+        <v>968</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Квамател таблетки вкриті плівковою оболонкою по 20 мг 2 блістера по 14 шт</v>
+      </c>
+      <c r="D132" t="str">
+        <v>ГЕДЕОН РІХТЕР ВАТ</v>
+      </c>
+      <c r="E132">
+        <v>320.3</v>
+      </c>
+      <c r="F132" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="B133">
+        <v>970</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Кеналог 40 суспензія для ін'єкцій 40 мг/мл в ампулах по 1 мл 5 шт</v>
+      </c>
+      <c r="D133" t="str">
+        <v>КРКА Д.Д.</v>
+      </c>
+      <c r="E133">
+        <v>990.5</v>
+      </c>
+      <c r="F133" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134">
+        <v>972</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Кетанов розчин для ін'єкцій 30 мг/мл в ампулах по 1 мл 10 шт</v>
+      </c>
+      <c r="D134" t="str">
+        <v>КК ТЕРАПІЯ АТ</v>
+      </c>
+      <c r="E134">
+        <v>406</v>
+      </c>
+      <c r="F134" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135">
+        <v>974</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Кетанов таблетки вкриті оболонкою по 10 мг 10 блістерів по 10 шт</v>
+      </c>
+      <c r="D135" t="str">
+        <v>КК ТЕРАПІЯ АТ</v>
+      </c>
+      <c r="E135">
+        <v>1154</v>
+      </c>
+      <c r="F135" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136">
+        <v>999</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Кеторол таблетки вкриті плівковою оболонкою по 10 мг 2 блістера по 10 шт</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Д-Р РЕДДІС ЛАБОРАТОРІС ЛТД</v>
+      </c>
+      <c r="E136">
+        <v>180.2</v>
+      </c>
+      <c r="F136" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137">
+        <v>1015</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Клімонорм таблетки вкриті оболонкою блістер 21шт</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Франція</v>
+      </c>
+      <c r="E137">
+        <v>680.1</v>
+      </c>
+      <c r="F137" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138">
+        <v>1016</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Кліон-Д 100 таблетки вагінальні стрип 10 шт</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Угорщина</v>
+      </c>
+      <c r="E138">
+        <v>373.5</v>
+      </c>
+      <c r="F138" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139">
+        <v>1022</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Клотримазол таблетки вагінальні по 100 мг блістер 6 шт в комплекті з аплікатором</v>
+      </c>
+      <c r="D139" t="str">
+        <v>ЕВЕРТОДЖЕН ЛАЙФ САЄНСИЗ ЛІМІТЕД</v>
+      </c>
+      <c r="E139">
+        <v>56.2</v>
+      </c>
+      <c r="F139" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140">
+        <v>1023</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Клотримазол таблетки вагінальні по 100 мг блістер 6 шт</v>
+      </c>
+      <c r="D140" t="str">
+        <v>ГЛАКСО СМІТ КЛЯЙН ФАРМАСЬЮТИКАЛЗ</v>
+      </c>
+      <c r="E140">
+        <v>68.5</v>
+      </c>
+      <c r="F140" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141">
+        <v>1025</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Клотримазол таблетки вагінальні по 100 мг блістер 10 шт</v>
+      </c>
+      <c r="D141" t="str">
+        <v>ПАТ НВЦ БОРЩАГІВСЬКИЙ ХФЗ</v>
+      </c>
+      <c r="E141">
+        <v>50.7</v>
+      </c>
+      <c r="F141" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142">
+        <v>1027</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Клотримазол крем 1% туба 20 г</v>
+      </c>
+      <c r="D142" t="str">
+        <v>ГЛАКСО СМІТ КЛЯЙН ФАРМАСЬЮТИКАЛЗ</v>
+      </c>
+      <c r="E142">
+        <v>63.1</v>
+      </c>
+      <c r="F142" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143">
+        <v>1029</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Клотримазол мазь 1 % туба 20 г</v>
+      </c>
+      <c r="D143" t="str">
+        <v>ЕНК'ЮБ ЕТІКАЛЗ ПРАЙВІТ ЛІМІТЕД</v>
+      </c>
+      <c r="E143">
+        <v>71.4</v>
+      </c>
+      <c r="F143" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144">
+        <v>1030</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Клотримазол мазь 1 % туба 25 г</v>
+      </c>
+      <c r="D144" t="str">
+        <v>ПАТ НВЦ БОРЩАГІВСЬКИЙ ХФЗ</v>
+      </c>
+      <c r="E144">
+        <v>64.6</v>
+      </c>
+      <c r="F144" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="B145">
+        <v>1049</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Комплевіт капсули тверді 2 блістера по 10 шт</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E145">
+        <v>66.4</v>
+      </c>
+      <c r="F145" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146">
+        <v>1069</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Корвалдин краплі оральні флакон 25 мл</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E146">
+        <v>46.9</v>
+      </c>
+      <c r="F146" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="B147">
+        <v>1070</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Корвалол краплі оральні флакон 25 мл</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E147">
+        <v>40.5</v>
+      </c>
+      <c r="F147" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="B148">
+        <v>1080</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Коринфар таблетки пролонгованої дії по 10 мг флакон 100 шт</v>
+      </c>
+      <c r="D148" t="str">
+        <v>ПЛІВА ХРВАТСКА Д.О.О.</v>
+      </c>
+      <c r="E148">
+        <v>395.7</v>
+      </c>
+      <c r="F148" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149">
+        <v>1081</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Коринфар ретард таблетки пролонгированої дії по 20 мг 3 блістера по 10 шт</v>
+      </c>
+      <c r="D149" t="str">
+        <v>ПЛІВА ХРВАТСКА Д.О.О.</v>
+      </c>
+      <c r="E149">
+        <v>440.7</v>
+      </c>
+      <c r="F149" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="B150">
+        <v>1086</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Валеріани кореневища з коренями пачка з внутрішнім пакетом 50 г</v>
+      </c>
+      <c r="D150" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E150">
+        <v>85</v>
+      </c>
+      <c r="F150" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="B151">
+        <v>1087</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Оману кореневища і корені пачка з внутрішнім пакетом 100 г</v>
+      </c>
+      <c r="D151" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E151">
+        <v>106.6</v>
+      </c>
+      <c r="F151" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152">
+        <v>1094</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Кофальгін таблетки блістер 10 шт</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E152">
+        <v>44</v>
+      </c>
+      <c r="F152" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="B153">
+        <v>1108</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Ксантинолу нікотинат таблетки по 150 мг 6 блістерів по 10 шт</v>
+      </c>
+      <c r="D153" t="str">
+        <v>КИЇВМЕДПРЕПАРАТ ПАТ</v>
+      </c>
+      <c r="E153">
+        <v>120.6</v>
+      </c>
+      <c r="F153" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="B154">
+        <v>1117</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Л-тироксин 100 Берлін-Хемі таблетки по 100 мкг 2 блістера по 25 шт</v>
+      </c>
+      <c r="D154" t="str">
+        <v>БЕРЛІН-ХЕМІ АГ</v>
+      </c>
+      <c r="E154">
+        <v>128</v>
+      </c>
+      <c r="F154" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155">
+        <v>1120</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Л-тироксин 50 Берлін-Хемі таблетки по 50 мкг 2 блістера по 25 шт</v>
+      </c>
+      <c r="D155" t="str">
+        <v>БЕРЛІН-ХЕМІ АГ</v>
+      </c>
+      <c r="E155">
+        <v>114.6</v>
+      </c>
+      <c r="F155" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="B156">
+        <v>1122</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Лазолван таблетки по 30 мг 5 блістерів по 10 шт</v>
+      </c>
+      <c r="D156" t="str">
+        <v>ДЕЛЬФАРМ РЕЙМС</v>
+      </c>
+      <c r="E156">
+        <v>180</v>
+      </c>
+      <c r="F156" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="B157">
+        <v>1130</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Ламізил таблетки по 250 мг блістер 14 шт</v>
+      </c>
+      <c r="D157" t="str">
+        <v>НОВАРТІС ФАРМА ПРОДАКШН ГМБХ</v>
+      </c>
+      <c r="E157">
+        <v>1412.1</v>
+      </c>
+      <c r="F157" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158">
+        <v>1131</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Ламізил крем 1% туба 15г</v>
+      </c>
+      <c r="D158" t="str">
+        <v>ГСК КОНСЬЮМЕР ХЕЛСКЕР С.А.</v>
+      </c>
+      <c r="E158">
+        <v>118.4</v>
+      </c>
+      <c r="F158" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="B159">
+        <v>1135</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Саліцилово-цинкова паста банка 25г</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E159">
+        <v>42.3</v>
+      </c>
+      <c r="F159" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160">
+        <v>1137</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Левамізол-Здоров'я таблетки по 150 мг блістер 1 шт</v>
+      </c>
+      <c r="D160" t="str">
+        <v>ТОВ ФАРМ КОМПАНІЯ ЗДОРОВ'Я</v>
+      </c>
+      <c r="E160">
+        <v>60.5</v>
+      </c>
+      <c r="F160" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161">
+        <v>1143</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Левоміцетин-Дарниця таблетки по 500 мг блістер 10 шт</v>
+      </c>
+      <c r="D161" t="str">
+        <v>ДАРНИЦЯ ПРАТ ФАРМ. ФІРМА</v>
+      </c>
+      <c r="E161">
+        <v>62.3</v>
+      </c>
+      <c r="F161" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="B162">
+        <v>1148</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Левосин мазь туба 40 г</v>
+      </c>
+      <c r="D162" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E162">
+        <v>145.5</v>
+      </c>
+      <c r="F162" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="B163">
+        <v>1203</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Лідокаїн спрей 10 % флакон 38 г</v>
+      </c>
+      <c r="D163" t="str">
+        <v>ФАРМАЦЕВТИЧНИЙ ЗАВОД ЕГІС ЗАТ</v>
+      </c>
+      <c r="E163">
+        <v>433.4</v>
+      </c>
+      <c r="F163" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164">
+        <v>1205</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Лідокаїн-Здоров'я розчин для ін'єкцій 100 мг/мл в ампулах по 2 мл 10 шт</v>
+      </c>
+      <c r="D164" t="str">
+        <v>ТОВ ФАРМ КОМПАНІЯ ЗДОРОВ'Я</v>
+      </c>
+      <c r="E164">
+        <v>51</v>
+      </c>
+      <c r="F164" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165">
+        <v>1216</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Лінкоміцинугідрохлорид капсули по 250 мг 2 блістери по 10 шт</v>
+      </c>
+      <c r="D165" t="str">
+        <v>ПАТ НВЦ БОРЩАГІВСЬКИЙ ХФЗ</v>
+      </c>
+      <c r="E165">
+        <v>51.9</v>
+      </c>
+      <c r="F165" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="B166">
+        <v>1225</v>
+      </c>
+      <c r="C166" t="str">
+        <v>М`яти перечної листя пачка з внутрішнім пакетом 50 г</v>
+      </c>
+      <c r="D166" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E166">
+        <v>83.7</v>
+      </c>
+      <c r="F166" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>261</v>
+      </c>
+      <c r="B167">
+        <v>1226</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Сени листя та плоди різано-пресоване пачка з внутрішнім пакетом 100г</v>
+      </c>
+      <c r="D167" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Ліктрави</v>
+      </c>
+      <c r="F167">
+        <v>70</v>
+      </c>
+      <c r="G167" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>261</v>
+      </c>
+      <c r="B168">
+        <v>1228</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Мучниці листя пачка з внутрішнім пакетом 50г</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E168" t="str">
+        <v>Ліктрави</v>
+      </c>
+      <c r="F168">
+        <v>140.2</v>
+      </c>
+      <c r="G168" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>261</v>
+      </c>
+      <c r="B169">
+        <v>1231</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Евкаліпта прутовидного листя пачка з внутрішнім пакетом 75 г</v>
+      </c>
+      <c r="D169" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Ліктрави</v>
+      </c>
+      <c r="F169">
+        <v>81.7</v>
+      </c>
+      <c r="G169" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>261</v>
+      </c>
+      <c r="B170">
+        <v>1239</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Лопедіум капсули по 2 мг 10 шт</v>
+      </c>
+      <c r="D170" t="str">
+        <v>САЛЮТАС ФАРМА ГМБХ</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Німеччина</v>
+      </c>
+      <c r="F170">
+        <v>67.1</v>
+      </c>
+      <c r="G170" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>261</v>
+      </c>
+      <c r="B171">
+        <v>1243</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Лоринден А мазь туба 15 г</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Польша</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Бауш Хелс</v>
+      </c>
+      <c r="F171">
+        <v>189.1</v>
+      </c>
+      <c r="G171" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>261</v>
+      </c>
+      <c r="B172">
+        <v>1244</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Лоринден С мазь туба 15 г</v>
+      </c>
+      <c r="D172" t="str">
+        <v>Польша</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Бауш Хелс</v>
+      </c>
+      <c r="F172">
+        <v>183.6</v>
+      </c>
+      <c r="G172" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>261</v>
+      </c>
+      <c r="B173">
+        <v>1247</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Люголя розчин флакон 25 мл</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Vishpha</v>
+      </c>
+      <c r="F173">
+        <v>36.1</v>
+      </c>
+      <c r="G173" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>261</v>
+      </c>
+      <c r="B174">
+        <v>1255</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Магнію сульфат розчин для ін'єкцій 25 % (250 мг/мл) в ампулах по 5 мл 10 шт</v>
+      </c>
+      <c r="D174" t="str">
+        <v>ДАРНИЦЯ ПРАТ ФАРМ. ФІРМА</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="F174">
+        <v>66</v>
+      </c>
+      <c r="G174" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>261</v>
+      </c>
+      <c r="B175">
+        <v>1263</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Макропен таблетки вкриті плівковою оболонкою по 400 мг 2 блістера по 8 шт</v>
+      </c>
+      <c r="D175" t="str">
+        <v>КРКА Д.Д.</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Словенія</v>
+      </c>
+      <c r="F175">
+        <v>176.3</v>
+      </c>
+      <c r="G175" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>261</v>
+      </c>
+      <c r="B176">
+        <v>1270</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Манініл 3,5 таблетки 3,5 мг флакон 120 шт</v>
+      </c>
+      <c r="D176" t="str">
+        <v>БЕРЛІН-ХЕМІ АГ</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Німеччина</v>
+      </c>
+      <c r="F176">
+        <v>127.6</v>
+      </c>
+      <c r="G176" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>261</v>
+      </c>
+      <c r="B177">
+        <v>1271</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Манініл 5 таблетки по 5 мг флакон 120 шт</v>
+      </c>
+      <c r="D177" t="str">
+        <v>БЕРЛІН-ХЕМІ АГ</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Німеччина</v>
+      </c>
+      <c r="F177">
+        <v>122.4</v>
+      </c>
+      <c r="G177" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>261</v>
+      </c>
+      <c r="B178">
+        <v>1285</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Мастодинон краплі оральні флакон 50 мл</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Німеччина</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Bionorica</v>
+      </c>
+      <c r="F178">
+        <v>384.8</v>
+      </c>
+      <c r="G178" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>261</v>
+      </c>
+      <c r="B179">
+        <v>1292</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Мемоплант таблетки вкриті оболонкою по 40 мг блістер 20 шт</v>
+      </c>
+      <c r="D179" t="str">
+        <v>ДР. ВІЛЬМАР ШВАБЕ ГМБХ І КО. КГ</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Німеччина</v>
+      </c>
+      <c r="F179">
+        <v>289.2</v>
+      </c>
+      <c r="G179" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>261</v>
+      </c>
+      <c r="B180">
+        <v>1294</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Меновазин розчин для зовнішнього застосування спиртовий флакон 40 мл</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Фітофарм</v>
+      </c>
+      <c r="F180">
+        <v>40.2</v>
+      </c>
+      <c r="G180" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>261</v>
+      </c>
+      <c r="B181">
+        <v>1302</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Мерказоліл-Здоров'я таблетки по 5 мг контейнер 100 шт</v>
+      </c>
+      <c r="D181" t="str">
+        <v>ТОВ ФАРМ КОМПАНІЯ ЗДОРОВ'Я</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="F181">
+        <v>248.9</v>
+      </c>
+      <c r="G181" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>261</v>
+      </c>
+      <c r="B182">
+        <v>1310</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Метилурацил таблетки по 0,5 г блістер 10 шт</v>
+      </c>
+      <c r="D182" t="str">
+        <v>МОНФАРМ ПАТ</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="F182">
+        <v>118.5</v>
+      </c>
+      <c r="G182" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>261</v>
+      </c>
+      <c r="B183">
+        <v>1319</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Метрогіл розчин для інфузій 5 мг/мл флакон 100 мл</v>
+      </c>
+      <c r="D183" t="str">
+        <v>ЮНІК ФАРМАСЬЮТИКАЛ ЛАБОРАТОРІЗ</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Індія</v>
+      </c>
+      <c r="F183">
+        <v>45</v>
+      </c>
+      <c r="G183" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>261</v>
+      </c>
+      <c r="B184">
+        <v>1320</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Метрогіл гель для зовнішнього застосування туба 30 г</v>
+      </c>
+      <c r="D184" t="str">
+        <v>ЮНІК ФАРМАСЬЮТИКАЛ ЛАБОРАТОРІЗ</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Індія</v>
+      </c>
+      <c r="F184">
+        <v>211.8</v>
+      </c>
+      <c r="G184" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>261</v>
+      </c>
+      <c r="B185">
+        <v>1323</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Метронідазол-Здоров'я таблетки по 250 мг блістер 20 шт</v>
+      </c>
+      <c r="D185" t="str">
+        <v>ТОВ ФАРМ КОМПАНІЯ ЗДОРОВ'Я</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="F185">
+        <v>52.1</v>
+      </c>
+      <c r="G185" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>261</v>
+      </c>
+      <c r="B186">
+        <v>1329</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Міконазол-Дарниця крем 20 мг/г туба 15 г</v>
+      </c>
+      <c r="D186" t="str">
+        <v>ДАРНИЦЯ ПРАТ ФАРМ. ФІРМА</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Україна</v>
+      </c>
+      <c r="F186">
+        <v>114.1</v>
+      </c>
+      <c r="G186" t="str">
+        <v>08.04.2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G186"/>
   </ignoredErrors>
 </worksheet>
 </file>